--- a/Server/Server/GameData/SlangList.xlsx
+++ b/Server/Server/GameData/SlangList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFF51A0-5F1E-40E2-85E3-98DE433BA46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D11648-3175-40B9-A987-30BF2E8E2621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4241" uniqueCount="4241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="4240">
   <si>
     <t>slang</t>
   </si>
@@ -10519,9 +10519,6 @@
   </si>
   <si>
     <t>JB</t>
-  </si>
-  <si>
-    <t>sb</t>
   </si>
   <si>
     <t>test</t>
@@ -13080,10 +13077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4241"/>
+  <dimension ref="A1:A4240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3479" workbookViewId="0">
+      <selection activeCell="C3506" sqref="C3506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -34288,11 +34285,6 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="4241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4241" s="1" t="s">
-        <v>4240</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
